--- a/erf_int.xlsx
+++ b/erf_int.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobi\Documents\GitHub\pygfunction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0516F20A-E628-4A82-9E48-3354752BD9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621A70AC-320E-4799-8601-8EEBD2A6E2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{96B89784-E58F-483A-B36F-0CEA9FF06990}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{96B89784-E58F-483A-B36F-0CEA9FF06990}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -62,8 +62,8 @@
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.0000%"/>
-    <numFmt numFmtId="168" formatCode="0.0000000000"/>
-    <numFmt numFmtId="176" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -99,8 +99,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3397,6 +3397,1566 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1F73-480A-9F4F-757FDF7B105C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="799855567"/>
+        <c:axId val="799855151"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="799855567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="799855151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="799855151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="799855567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5000000000000102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.4000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.0000000000000102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.6000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5000000000000102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.4000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.0000000000000102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.50000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.90000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.80000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.70000000000002005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.60000000000001996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.50000000000001998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.40000000000002001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.30000000000001997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.9999999999980105E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.19999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.39999999999997998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.49999999999998002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.59999999999997999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.69999999999997997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.79999999999997995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.89999999999998004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99999999999998002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.19999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.3999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.49999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.69999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.99999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.0999999999999699</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.19999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2999999999999701</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.3999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.4999999999999698</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.5999999999999699</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.69999999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.7999999999999701</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.8999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.9999999999999698</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.0999999999999699</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.19999999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.2999999999999701</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.3999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4999999999999698</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.5999999999999699</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.69999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.7999999999999701</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.8999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.9999999999999698</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.0999999999999703</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.19999999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.2999999999999696</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.3999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.4999999999999698</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.5999999999999703</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.69999999999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.7999999999999696</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.8999999999999604</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.99999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$G$2:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.99999999999846256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99999999999578104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99999999998864786</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9999999999700474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99999999992250399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99999999980338394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99999999951082896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99999999880652823</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99999999714450583</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99999999329997236</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999998458274209</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99999996520775136</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99999992299607254</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99999983284894212</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99999964413700704</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99999925690162761</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9999984780066371</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99999694229020353</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99999397423884828</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99998835134263275</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99997790950300136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99995890212190053</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99992498680533459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99986566726005943</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99976396558347069</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99959304798255511</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99931148610335496</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99885682340264337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99813715370201817</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99702053334366714</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99532226501895293</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99279042923525773</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9890905016357312</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.98379045859077519</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97634838334464491</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.96610514647531187</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9522851197626504</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.93400794494065453</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.91031397822963811</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.88020506957408506</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.842700792949719</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.79690821242283716</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.74210096470766651</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.67780119383743243</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.60385609084794156</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.52049987781306406</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.42839235504668777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.3286267594591481</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.22270258921050015</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.11246291601830724</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.11246291601826267</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.22270258921045677</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.32862675945910685</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.42839235504664919</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.52049987781302909</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.60385609084791025</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.67780119383740467</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.74210096470764852</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.79690821242282217</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.84270079294970657</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.88020506957407496</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.91031397822963001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.93400794494064832</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.95228511976264563</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.96610514647530832</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.97634838334464225</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.9837904585907733</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.98909050163572987</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99279042923525684</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99532226501895227</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99702053334366658</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.99813715370201783</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99885682340264315</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99931148610335485</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99959304798255499</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99976396558347058</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.99986566726005943</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99992498680533448</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99995890212190053</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99997790950300136</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99998835134263275</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99999397423884828</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99999694229020353</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.9999984780066371</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99999925690162761</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99999964413700704</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99999983284894212</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99999992299607254</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99999996520775136</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99999998458274209</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99999999329997236</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99999999714450583</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99999999880652823</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99999999951082896</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99999999980338394</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99999999992250399</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.9999999999700474</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99999999998864786</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99999999999578104</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99999999999846256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C50-4998-8E37-D8190FE85BE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5000000000000102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.4000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.0000000000000102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.6000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5000000000000102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.4000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.0000000000000102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.50000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.90000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.80000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.70000000000002005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.60000000000001996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.50000000000001998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.40000000000002001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.30000000000001997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.9999999999980105E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.19999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.39999999999997998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.49999999999998002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.59999999999997999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.69999999999997997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.79999999999997995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.89999999999998004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99999999999998002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.19999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.3999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.49999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.69999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.99999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.0999999999999699</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.19999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2999999999999701</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.3999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.4999999999999698</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.5999999999999699</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.69999999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.7999999999999701</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.8999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.9999999999999698</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.0999999999999699</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.19999999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.2999999999999701</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.3999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4999999999999698</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.5999999999999699</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.69999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.7999999999999701</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.8999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.9999999999999698</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.0999999999999703</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.19999999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.2999999999999696</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.3999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.4999999999999698</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.5999999999999703</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.69999999999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.7999999999999696</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.8999999999999604</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.99999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$H$2:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99932443895183243</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99585607631806106</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.98930349327658595</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97950332657846884</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9662804694861874</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.94944553211610228</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92879147253229877</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9040890490782475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.8750805557426945</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.84147098480790006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.79623022908141461</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.74179044301780239</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.67767418413095648</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.60381128527494532</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.52048695631487563</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.42838956870707118</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.32862637914230147</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.22270256658616544</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1124629158397944</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.11246291583974981</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.22270256658612209</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.32862637914226023</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.42838956870703271</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.52048695631484054</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6038112852749139</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.67767418413092884</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.74179044301778452</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.79623022908139973</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.84134674793888053</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.87508055574268517</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.90408904907823939</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.92879147253229211</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.94944553211609672</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.96628046948618296</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.97950332657846539</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.98930349327658351</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.9958560763180595</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99932443895183187</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99986214471842261</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C50-4998-8E37-D8190FE85BE0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7491,6 +9051,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8883,6 +10483,522 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13895,13 +16011,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>823912</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>61912</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
@@ -13924,6 +16040,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7228716-F0CC-441E-ABBD-16CFEFCCE7E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17654,10 +19808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E61A02E-AD3F-437B-9CBA-C889E8868B58}">
-  <dimension ref="A2:H102"/>
+  <dimension ref="A2:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17665,11 +19819,11 @@
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-5</v>
       </c>
@@ -17697,12 +19851,16 @@
         <f>ERF(ABS(A2))</f>
         <v>0.99999999999846256</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2">
+        <f>IF(ABS(A2)&lt;1,2/SQRT(PI())*SIN(SIN(ABS(A2))),IF(ABS(A2) &lt; 2,SIN(ABS(A2)^(2/3)),1))</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
         <f>1/SQRT(PI())</f>
         <v>0.56418958354775628</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-4.9000000000000004</v>
       </c>
@@ -17730,17 +19888,21 @@
         <f t="shared" ref="G3:G66" si="3">ERF(ABS(A3))</f>
         <v>0.99999999999578104</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="4">IF(ABS(A3)&lt;1,2/SQRT(PI())*SIN(SIN(ABS(A3))),IF(ABS(A3) &lt; 2,SIN(ABS(A3)^(2/3)),1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.8</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B67" si="4">ERF(A4)*A4-(1-EXP(-1*A4^2))/SQRT(PI())</f>
+        <f t="shared" ref="B4:B67" si="5">ERF(A4)*A4-(1-EXP(-1*A4^2))/SQRT(PI())</f>
         <v>4.2358104164533792</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C67" si="5">ERF(A4)*A4</f>
+        <f t="shared" ref="C4:C67" si="6">ERF(A4)*A4</f>
         <v>4.7999999999455092</v>
       </c>
       <c r="D4" s="4">
@@ -17759,17 +19921,21 @@
         <f t="shared" si="3"/>
         <v>0.99999999998864786</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-4.7</v>
       </c>
       <c r="B5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1358104164552998</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.699999999859223</v>
       </c>
       <c r="D5" s="4">
@@ -17788,17 +19954,21 @@
         <f t="shared" si="3"/>
         <v>0.9999999999700474</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-4.5999999999999996</v>
       </c>
       <c r="B6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0358104164603086</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5999999996435177</v>
       </c>
       <c r="D6" s="4">
@@ -17817,17 +19987,21 @@
         <f t="shared" si="3"/>
         <v>0.99999999992250399</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-4.5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9358104164731245</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4999999991152277</v>
       </c>
       <c r="D7" s="4">
@@ -17846,17 +20020,21 @@
         <f t="shared" si="3"/>
         <v>0.99999999980338394</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-4.4000000000000004</v>
       </c>
       <c r="B8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8358104165052733</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3999999978476474</v>
       </c>
       <c r="D8" s="4">
@@ -17875,17 +20053,21 @@
         <f t="shared" si="3"/>
         <v>0.99999999951082896</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-4.3</v>
       </c>
       <c r="B9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.735810416584366</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2999999948680712</v>
       </c>
       <c r="D9" s="4">
@@ -17904,17 +20086,21 @@
         <f t="shared" si="3"/>
         <v>0.99999999880652823</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-4.2</v>
       </c>
       <c r="B10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6358104167751883</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1999999880069243</v>
       </c>
       <c r="D10" s="4">
@@ -17933,17 +20119,21 @@
         <f t="shared" si="3"/>
         <v>0.99999999714450583</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-4.0999999999999996</v>
       </c>
       <c r="B11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5358104172266906</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0999999725298863</v>
       </c>
       <c r="D11" s="4">
@@ -17962,17 +20152,21 @@
         <f t="shared" si="3"/>
         <v>0.99999999329997236</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-4</v>
       </c>
       <c r="B12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4358104182743854</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9999999383309683</v>
       </c>
       <c r="D12" s="4">
@@ -17991,17 +20185,21 @@
         <f t="shared" si="3"/>
         <v>0.99999998458274209</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-3.9</v>
       </c>
       <c r="B13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3358104206586985</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.8999998643102303</v>
       </c>
       <c r="D13" s="4">
@@ -18020,17 +20218,21 @@
         <f t="shared" si="3"/>
         <v>0.99999996520775136</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-3.8</v>
       </c>
       <c r="B14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2358104259804641</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7999997073850755</v>
       </c>
       <c r="D14" s="4">
@@ -18049,17 +20251,21 @@
         <f t="shared" si="3"/>
         <v>0.99999992299607254</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-3.7</v>
       </c>
       <c r="B15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1358104376303717</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.6999993815410859</v>
       </c>
       <c r="D15" s="4">
@@ -18078,17 +20284,21 @@
         <f t="shared" si="3"/>
         <v>0.99999983284894212</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-3.6</v>
       </c>
       <c r="B16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0358104626438913</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5999987188932252</v>
       </c>
       <c r="D16" s="4">
@@ -18107,17 +20317,21 @@
         <f t="shared" si="3"/>
         <v>0.99999964413700704</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.5000000000000102</v>
       </c>
       <c r="B17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.935810515321339</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4999973991557067</v>
       </c>
       <c r="D17" s="4">
@@ -18136,17 +20350,21 @@
         <f t="shared" si="3"/>
         <v>0.99999925690162761</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-3.4000000000000101</v>
       </c>
       <c r="B18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8358106241353385</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3999948252225765</v>
       </c>
       <c r="D18" s="4">
@@ -18165,17 +20383,21 @@
         <f t="shared" si="3"/>
         <v>0.9999984780066371</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.30000000000001</v>
       </c>
       <c r="B19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.735810844615147</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2999899095576817</v>
       </c>
       <c r="D19" s="4">
@@ -18194,17 +20416,21 @@
         <f t="shared" si="3"/>
         <v>0.99999694229020353</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.2000000000000099</v>
       </c>
       <c r="B20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.635811282834335</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1999807175643245</v>
       </c>
       <c r="D20" s="4">
@@ -18223,17 +20449,21 @@
         <f t="shared" si="3"/>
         <v>0.99999397423884828</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-3.1000000000000099</v>
       </c>
       <c r="B21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5358121372478131</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0999638891621712</v>
       </c>
       <c r="D21" s="4">
@@ -18252,17 +20482,21 @@
         <f t="shared" si="3"/>
         <v>0.99998835134263275</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-3.0000000000000102</v>
       </c>
       <c r="B22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4358137714872314</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9999337285090144</v>
       </c>
       <c r="D22" s="4">
@@ -18281,17 +20515,21 @@
         <f t="shared" si="3"/>
         <v>0.99997790950300136</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-2.9000000000000101</v>
       </c>
       <c r="B23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3358168380520254</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8998808161535217</v>
       </c>
       <c r="D23" s="4">
@@ -18310,17 +20548,21 @@
         <f t="shared" si="3"/>
         <v>0.99995890212190053</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-2.80000000000001</v>
       </c>
       <c r="B24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2358224834792937</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.799789963054947</v>
       </c>
       <c r="D24" s="4">
@@ -18339,17 +20581,21 @@
         <f t="shared" si="3"/>
         <v>0.99992498680533459</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-2.7000000000000099</v>
       </c>
       <c r="B25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1358326804343415</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6996373016021704</v>
       </c>
       <c r="D25" s="4">
@@ -18368,17 +20614,21 @@
         <f t="shared" si="3"/>
         <v>0.99986566726005943</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-2.6000000000000099</v>
       </c>
       <c r="B26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0358507519941389</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5993863105170338</v>
       </c>
       <c r="D26" s="4">
@@ -18397,17 +20647,21 @@
         <f t="shared" si="3"/>
         <v>0.99976396558347069</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-2.5000000000000102</v>
       </c>
       <c r="B27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9358821785238181</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.498982619956398</v>
       </c>
       <c r="D27" s="4">
@@ -18426,17 +20680,21 @@
         <f t="shared" si="3"/>
         <v>0.99959304798255511</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-2.4000000000000101</v>
       </c>
       <c r="B28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8359358074407446</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.398347566648062</v>
       </c>
       <c r="D28" s="4">
@@ -18455,17 +20713,21 @@
         <f t="shared" si="3"/>
         <v>0.99931148610335496</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-2.30000000000001</v>
       </c>
       <c r="B29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7360256188995962</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2973706938260898</v>
       </c>
       <c r="D29" s="4">
@@ -18484,17 +20746,21 @@
         <f t="shared" si="3"/>
         <v>0.99885682340264337</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-2.2000000000000099</v>
       </c>
       <c r="B30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6361732321291518</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1959017381444501</v>
       </c>
       <c r="D30" s="4">
@@ -18513,17 +20779,21 @@
         <f t="shared" si="3"/>
         <v>0.99813715370201817</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-2.1000000000000099</v>
       </c>
       <c r="B31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5364113614738575</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0937431200217107</v>
       </c>
       <c r="D31" s="4">
@@ -18542,17 +20812,21 @@
         <f t="shared" si="3"/>
         <v>0.99702053334366714</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-2.0000000000000102</v>
       </c>
       <c r="B32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4367884391672052</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9906445300379161</v>
       </c>
       <c r="D32" s="4">
@@ -18571,17 +20845,21 @@
         <f t="shared" si="3"/>
         <v>0.99532226501895293</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.9000000000000099</v>
       </c>
       <c r="B33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3373746022169666</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8863018155469995</v>
       </c>
       <c r="D33" s="4">
@@ -18600,17 +20878,21 @@
         <f t="shared" si="3"/>
         <v>0.99279042923525773</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>0.99932443895183243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.80000000000001</v>
       </c>
       <c r="B34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2382691810625746</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7803629029443262</v>
       </c>
       <c r="D34" s="4">
@@ -18629,17 +20911,21 @@
         <f t="shared" si="3"/>
         <v>0.9890905016357312</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>0.99585607631806106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.7000000000000099</v>
       </c>
       <c r="B35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1396097163050043</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6724437796043277</v>
       </c>
       <c r="D35" s="4">
@@ -18658,17 +20944,21 @@
         <f t="shared" si="3"/>
         <v>0.98379045859077519</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>0.98930349327658595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.6000000000000101</v>
       </c>
       <c r="B36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0415823591206568</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5621574133514418</v>
       </c>
       <c r="D36" s="4">
@@ -18687,17 +20977,21 @@
         <f t="shared" si="3"/>
         <v>0.97634838334464491</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>0.97950332657846884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.50000000000001</v>
       </c>
       <c r="B37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94443328077703403</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4491577197129775</v>
       </c>
       <c r="D37" s="4">
@@ -18716,17 +21010,21 @@
         <f t="shared" si="3"/>
         <v>0.96610514647531187</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>0.9662804694861874</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.4000000000000099</v>
       </c>
       <c r="B38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8484804379586004</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.33319916766772</v>
       </c>
       <c r="D38" s="4">
@@ -18745,17 +21043,21 @@
         <f t="shared" si="3"/>
         <v>0.9522851197626504</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>0.94944553211610228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1.30000000000001</v>
       </c>
       <c r="B39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.75412473827313597</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2142103284228603</v>
       </c>
       <c r="D39" s="4">
@@ -18774,17 +21076,21 @@
         <f t="shared" si="3"/>
         <v>0.93400794494065453</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>0.92879147253229877</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.2000000000000099</v>
       </c>
       <c r="B40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66185936382958488</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0923767738755747</v>
       </c>
       <c r="D40" s="4">
@@ -18803,17 +21109,21 @@
         <f t="shared" si="3"/>
         <v>0.91031397822963811</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>0.9040890490782475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1.1000000000000101</v>
       </c>
       <c r="B41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57227579188036448</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96822557653150243</v>
       </c>
       <c r="D41" s="4">
@@ -18832,17 +21142,21 @@
         <f t="shared" si="3"/>
         <v>0.88020506957408506</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>0.8750805557426945</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-1.00000000000001</v>
       </c>
       <c r="B42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48606495811226436</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84270079294972744</v>
       </c>
       <c r="D42" s="4">
@@ -18861,17 +21175,21 @@
         <f t="shared" si="3"/>
         <v>0.842700792949719</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="4"/>
+        <v>0.84147098480790006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-0.90000000000001001</v>
       </c>
       <c r="B43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.40401209475298189</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.71721739118056138</v>
       </c>
       <c r="D43" s="4">
@@ -18890,17 +21208,21 @@
         <f t="shared" si="3"/>
         <v>0.79690821242283716</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>0.79623022908141461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-0.80000000000001004</v>
       </c>
       <c r="B44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32698408134711404</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.59368077176614065</v>
       </c>
       <c r="D44" s="4">
@@ -18919,17 +21241,21 @@
         <f t="shared" si="3"/>
         <v>0.74210096470766651</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>0.74179044301780239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-0.70000000000002005</v>
       </c>
       <c r="B45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25590868234371955</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47446083568621628</v>
       </c>
       <c r="D45" s="4">
@@ -18948,17 +21274,21 @@
         <f t="shared" si="3"/>
         <v>0.67780119383743243</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f t="shared" si="4"/>
+        <v>0.67767418413095648</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-0.60000000000001996</v>
       </c>
       <c r="B46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19174578681815493</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.36231365450877701</v>
       </c>
       <c r="D46" s="4">
@@ -18977,17 +21307,21 @@
         <f t="shared" si="3"/>
         <v>0.60385609084794156</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>0.60381128527494532</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-0.50000000000001998</v>
       </c>
       <c r="B47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13545164482649974</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.26024993890654241</v>
       </c>
       <c r="D47" s="4">
@@ -19006,17 +21340,21 @@
         <f t="shared" si="3"/>
         <v>0.52049987781306406</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>0.52048695631487563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-0.40000000000002001</v>
       </c>
       <c r="B48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.7938007890573572E-2</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.17135694201868368</v>
       </c>
       <c r="D48" s="4">
@@ -19035,17 +21373,21 @@
         <f t="shared" si="3"/>
         <v>0.42839235504668777</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f t="shared" si="4"/>
+        <v>0.42838956870707118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-0.30000000000001997</v>
       </c>
       <c r="B49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0028899099470024E-2</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.8588027837750988E-2</v>
       </c>
       <c r="D49" s="4">
@@ -19064,17 +21406,21 @@
         <f t="shared" si="3"/>
         <v>0.3286267594591481</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f t="shared" si="4"/>
+        <v>0.32862637914230147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-0.20000000000002</v>
       </c>
       <c r="B50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2418327846775415E-2</v>
       </c>
       <c r="C50" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4540517842104485E-2</v>
       </c>
       <c r="D50" s="4">
@@ -19093,17 +21439,21 @@
         <f t="shared" si="3"/>
         <v>0.22270258921050015</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f t="shared" si="4"/>
+        <v>0.22270256658616544</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-0.10000000000002</v>
       </c>
       <c r="B51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6325114485429335E-3</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1246291601832974E-2</v>
       </c>
       <c r="D51" s="4">
@@ -19122,17 +21472,21 @@
         <f t="shared" si="3"/>
         <v>0.11246291601830724</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f t="shared" si="4"/>
+        <v>0.1124629158397944</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
       <c r="B52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C52" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D52" s="4">
@@ -19151,17 +21505,21 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9.9999999999980105E-2</v>
       </c>
       <c r="B53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6325114485384345E-3</v>
       </c>
       <c r="C53" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1246291601824028E-2</v>
       </c>
       <c r="D53" s="4">
@@ -19180,17 +21538,21 @@
         <f t="shared" si="3"/>
         <v>0.11246291601826267</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <f t="shared" si="4"/>
+        <v>0.11246291583974981</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.19999999999998</v>
       </c>
       <c r="B54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2418327846766541E-2</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4540517842086902E-2</v>
       </c>
       <c r="D54" s="4">
@@ -19209,17 +21571,21 @@
         <f t="shared" si="3"/>
         <v>0.22270258921045677</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>0.22270256658612209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.29999999999998</v>
       </c>
       <c r="B55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0028899099456917E-2</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.8588027837725481E-2</v>
       </c>
       <c r="D55" s="4">
@@ -19238,17 +21604,21 @@
         <f t="shared" si="3"/>
         <v>0.32862675945910685</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <f t="shared" si="4"/>
+        <v>0.32862637914226023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.39999999999997998</v>
       </c>
       <c r="B56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.7938007890556405E-2</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.17135694201865109</v>
       </c>
       <c r="D56" s="4">
@@ -19267,17 +21637,21 @@
         <f t="shared" si="3"/>
         <v>0.42839235504664919</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <f t="shared" si="4"/>
+        <v>0.42838956870703271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.49999999999998002</v>
       </c>
       <c r="B57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13545164482647903</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.26024993890650416</v>
       </c>
       <c r="D57" s="4">
@@ -19296,17 +21670,21 @@
         <f t="shared" si="3"/>
         <v>0.52049987781302909</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f t="shared" si="4"/>
+        <v>0.52048695631484054</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.59999999999997999</v>
       </c>
       <c r="B58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19174578681813087</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3623136545087341</v>
       </c>
       <c r="D58" s="4">
@@ -19325,17 +21703,21 @@
         <f t="shared" si="3"/>
         <v>0.60385609084791025</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f t="shared" si="4"/>
+        <v>0.6038112852749139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.69999999999997997</v>
       </c>
       <c r="B59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25590868234369235</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4744608356861697</v>
       </c>
       <c r="D59" s="4">
@@ -19354,17 +21736,21 @@
         <f t="shared" si="3"/>
         <v>0.67780119383740467</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f t="shared" si="4"/>
+        <v>0.67767418413092884</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.79999999999997995</v>
       </c>
       <c r="B60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32698408134709156</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5936807717661039</v>
       </c>
       <c r="D60" s="4">
@@ -19383,17 +21769,21 @@
         <f t="shared" si="3"/>
         <v>0.74210096470764852</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <f t="shared" si="4"/>
+        <v>0.74179044301778452</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.89999999999998004</v>
       </c>
       <c r="B61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.40401209475295813</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.71721739118052408</v>
       </c>
       <c r="D61" s="4">
@@ -19412,17 +21802,21 @@
         <f t="shared" si="3"/>
         <v>0.79690821242282217</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <f t="shared" si="4"/>
+        <v>0.79623022908139973</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.99999999999998002</v>
       </c>
       <c r="B62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48606495811223899</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84270079294968969</v>
       </c>
       <c r="D62" s="4">
@@ -19441,17 +21835,21 @@
         <f t="shared" si="3"/>
         <v>0.84270079294970657</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <f t="shared" si="4"/>
+        <v>0.84134674793888053</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1.0999999999999801</v>
       </c>
       <c r="B63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57227579188033806</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.9682255765314649</v>
       </c>
       <c r="D63" s="4">
@@ -19470,17 +21868,21 @@
         <f t="shared" si="3"/>
         <v>0.88020506957407496</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <f t="shared" si="4"/>
+        <v>0.87508055574268517</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1.19999999999998</v>
       </c>
       <c r="B64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66185936382955735</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0923767738755377</v>
       </c>
       <c r="D64" s="4">
@@ -19499,17 +21901,21 @@
         <f t="shared" si="3"/>
         <v>0.91031397822963001</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <f t="shared" si="4"/>
+        <v>0.90408904907823939</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1.2999999999999801</v>
       </c>
       <c r="B65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.75412473827310822</v>
       </c>
       <c r="C65" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2142103284228243</v>
       </c>
       <c r="D65" s="4">
@@ -19528,17 +21934,21 @@
         <f t="shared" si="3"/>
         <v>0.93400794494064832</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <f t="shared" si="4"/>
+        <v>0.92879147253229211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1.3999999999999799</v>
       </c>
       <c r="B66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.84848043795857198</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3331991676676849</v>
       </c>
       <c r="D66" s="4">
@@ -19557,1049 +21967,1197 @@
         <f t="shared" si="3"/>
         <v>0.95228511976264563</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <f t="shared" si="4"/>
+        <v>0.94944553211609672</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1.49999999999998</v>
       </c>
       <c r="B67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94443328077700517</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4491577197129433</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" ref="D67:D102" si="6">-(1-EXP(-1*A67^2))</f>
+        <f t="shared" ref="D67:D102" si="7">-(1-EXP(-1*A67^2))</f>
         <v>-0.89460077543812933</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E102" si="7">ERF(ABS(A67))*ABS(A67)</f>
+        <f t="shared" ref="E67:E102" si="8">ERF(ABS(A67))*ABS(A67)</f>
         <v>1.4491577197129433</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F102" si="8">1-(EXP(-1*A67^2)/6+EXP(-4/3*A67^2)/2)</f>
+        <f t="shared" ref="F67:F102" si="9">1-(EXP(-1*A67^2)/6+EXP(-4/3*A67^2)/2)</f>
         <v>0.95753992838908764</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G102" si="9">ERF(ABS(A67))</f>
+        <f t="shared" ref="G67:G102" si="10">ERF(ABS(A67))</f>
         <v>0.96610514647530832</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <f t="shared" ref="H67:H102" si="11">IF(ABS(A67)&lt;1,2/SQRT(PI())*SIN(SIN(ABS(A67))),IF(ABS(A67) &lt; 2,SIN(ABS(A67)^(2/3)),1))</f>
+        <v>0.96628046948618296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.5999999999999801</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B102" si="10">ERF(A68)*A68-(1-EXP(-1*A68^2))/SQRT(PI())</f>
+        <f t="shared" ref="B68:B102" si="12">ERF(A68)*A68-(1-EXP(-1*A68^2))/SQRT(PI())</f>
         <v>1.0415823591206275</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" ref="C68:C102" si="11">ERF(A68)*A68</f>
+        <f t="shared" ref="C68:C102" si="13">ERF(A68)*A68</f>
         <v>1.5621574133514082</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.92269525955669529</v>
       </c>
       <c r="E68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5621574133514082</v>
       </c>
       <c r="F68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.97065025339291278</v>
       </c>
       <c r="G68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.97634838334464225</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <f t="shared" si="11"/>
+        <v>0.97950332657846539</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.69999999999998</v>
       </c>
       <c r="B69">
+        <f t="shared" si="12"/>
+        <v>1.1396097163049748</v>
+      </c>
+      <c r="C69" s="4">
+        <f t="shared" si="13"/>
+        <v>1.6724437796042948</v>
+      </c>
+      <c r="D69" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.94442378738851318</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="8"/>
+        <v>1.6724437796042948</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="9"/>
+        <v>0.98013283686153774</v>
+      </c>
+      <c r="G69">
         <f t="shared" si="10"/>
-        <v>1.1396097163049748</v>
-      </c>
-      <c r="C69" s="4">
+        <v>0.9837904585907733</v>
+      </c>
+      <c r="H69">
         <f t="shared" si="11"/>
-        <v>1.6724437796042948</v>
-      </c>
-      <c r="D69" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.94442378738851318</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="7"/>
-        <v>1.6724437796042948</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="8"/>
-        <v>0.98013283686153774</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="9"/>
-        <v>0.9837904585907733</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.98930349327658351</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1.7999999999999801</v>
       </c>
       <c r="B70">
+        <f t="shared" si="12"/>
+        <v>1.2382691810625448</v>
+      </c>
+      <c r="C70" s="4">
+        <f t="shared" si="13"/>
+        <v>1.780362902944294</v>
+      </c>
+      <c r="D70" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.96083610490101012</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="8"/>
+        <v>1.780362902944294</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="9"/>
+        <v>0.98682274237894585</v>
+      </c>
+      <c r="G70">
         <f t="shared" si="10"/>
-        <v>1.2382691810625448</v>
-      </c>
-      <c r="C70" s="4">
+        <v>0.98909050163572987</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="11"/>
-        <v>1.780362902944294</v>
-      </c>
-      <c r="D70" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.96083610490101012</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="7"/>
-        <v>1.780362902944294</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="8"/>
-        <v>0.98682274237894585</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="9"/>
-        <v>0.98909050163572987</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.9958560763180595</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1.8999999999999799</v>
       </c>
       <c r="B71">
+        <f t="shared" si="12"/>
+        <v>1.3373746022169368</v>
+      </c>
+      <c r="C71" s="4">
+        <f t="shared" si="13"/>
+        <v>1.8863018155469682</v>
+      </c>
+      <c r="D71" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.97294815313364758</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="8"/>
+        <v>1.8863018155469682</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="9"/>
+        <v>0.99143098616511349</v>
+      </c>
+      <c r="G71">
         <f t="shared" si="10"/>
-        <v>1.3373746022169368</v>
-      </c>
-      <c r="C71" s="4">
+        <v>0.99279042923525684</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="11"/>
-        <v>1.8863018155469682</v>
-      </c>
-      <c r="D71" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.97294815313364758</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="7"/>
-        <v>1.8863018155469682</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="8"/>
-        <v>0.99143098616511349</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="9"/>
-        <v>0.99279042923525684</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.99932443895183187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.99999999999998</v>
       </c>
       <c r="B72">
+        <f t="shared" si="12"/>
+        <v>1.436788439167175</v>
+      </c>
+      <c r="C72" s="4">
+        <f t="shared" si="13"/>
+        <v>1.9906445300378846</v>
+      </c>
+      <c r="D72" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.98168436111126434</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="8"/>
+        <v>1.9906445300378846</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="9"/>
+        <v>0.99453341852162813</v>
+      </c>
+      <c r="G72">
         <f t="shared" si="10"/>
-        <v>1.436788439167175</v>
-      </c>
-      <c r="C72" s="4">
+        <v>0.99532226501895227</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="11"/>
-        <v>1.9906445300378846</v>
-      </c>
-      <c r="D72" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.98168436111126434</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="7"/>
-        <v>1.9906445300378846</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="8"/>
-        <v>0.99453341852162813</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="9"/>
-        <v>0.99532226501895227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.99986214471842261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2.0999999999999699</v>
       </c>
       <c r="B73">
+        <f t="shared" si="12"/>
+        <v>1.5364113614738177</v>
+      </c>
+      <c r="C73" s="4">
+        <f t="shared" si="13"/>
+        <v>2.0937431200216698</v>
+      </c>
+      <c r="D73" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.98784482167008347</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="8"/>
+        <v>2.0937431200216698</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="9"/>
+        <v>0.99657674430749521</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="10"/>
-        <v>1.5364113614738177</v>
-      </c>
-      <c r="C73" s="4">
+        <v>0.99702053334366658</v>
+      </c>
+      <c r="H73">
         <f t="shared" si="11"/>
-        <v>2.0937431200216698</v>
-      </c>
-      <c r="D73" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.98784482167008347</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="7"/>
-        <v>2.0937431200216698</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="8"/>
-        <v>0.99657674430749521</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="9"/>
-        <v>0.99702053334366658</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2.19999999999997</v>
       </c>
       <c r="B74">
+        <f t="shared" si="12"/>
+        <v>1.6361732321291116</v>
+      </c>
+      <c r="C74" s="4">
+        <f t="shared" si="13"/>
+        <v>2.1959017381444093</v>
+      </c>
+      <c r="D74" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99209294594840547</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="8"/>
+        <v>2.1959017381444093</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="9"/>
+        <v>0.99789452639184861</v>
+      </c>
+      <c r="G74">
         <f t="shared" si="10"/>
-        <v>1.6361732321291116</v>
-      </c>
-      <c r="C74" s="4">
+        <v>0.99813715370201783</v>
+      </c>
+      <c r="H74">
         <f t="shared" si="11"/>
-        <v>2.1959017381444093</v>
-      </c>
-      <c r="D74" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99209294594840547</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="7"/>
-        <v>2.1959017381444093</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="8"/>
-        <v>0.99789452639184861</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="9"/>
-        <v>0.99813715370201783</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.2999999999999701</v>
       </c>
       <c r="B75">
+        <f t="shared" si="12"/>
+        <v>1.7360256188995562</v>
+      </c>
+      <c r="C75" s="4">
+        <f t="shared" si="13"/>
+        <v>2.2973706938260494</v>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99495823974030828</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="8"/>
+        <v>2.2973706938260494</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="9"/>
+        <v>0.99872744541953229</v>
+      </c>
+      <c r="G75">
         <f t="shared" si="10"/>
-        <v>1.7360256188995562</v>
-      </c>
-      <c r="C75" s="4">
+        <v>0.99885682340264315</v>
+      </c>
+      <c r="H75">
         <f t="shared" si="11"/>
-        <v>2.2973706938260494</v>
-      </c>
-      <c r="D75" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99495823974030828</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="7"/>
-        <v>2.2973706938260494</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="8"/>
-        <v>0.99872744541953229</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="9"/>
-        <v>0.99885682340264315</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2.3999999999999702</v>
       </c>
       <c r="B76">
+        <f t="shared" si="12"/>
+        <v>1.8359358074407044</v>
+      </c>
+      <c r="C76" s="4">
+        <f t="shared" si="13"/>
+        <v>2.3983475666480216</v>
+      </c>
+      <c r="D76" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99684888840155506</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="8"/>
+        <v>2.3983475666480216</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="9"/>
+        <v>0.99924382728420169</v>
+      </c>
+      <c r="G76">
         <f t="shared" si="10"/>
-        <v>1.8359358074407044</v>
-      </c>
-      <c r="C76" s="4">
+        <v>0.99931148610335485</v>
+      </c>
+      <c r="H76">
         <f t="shared" si="11"/>
-        <v>2.3983475666480216</v>
-      </c>
-      <c r="D76" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99684888840155506</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="7"/>
-        <v>2.3983475666480216</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="8"/>
-        <v>0.99924382728420169</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="9"/>
-        <v>0.99931148610335485</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2.4999999999999698</v>
       </c>
       <c r="B77">
+        <f t="shared" si="12"/>
+        <v>1.9358821785237774</v>
+      </c>
+      <c r="C77" s="4">
+        <f t="shared" si="13"/>
+        <v>2.4989826199563572</v>
+      </c>
+      <c r="D77" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99806954586377195</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="8"/>
+        <v>2.4989826199563572</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="9"/>
+        <v>0.99955807290575227</v>
+      </c>
+      <c r="G77">
         <f t="shared" si="10"/>
-        <v>1.9358821785237774</v>
-      </c>
-      <c r="C77" s="4">
+        <v>0.99959304798255499</v>
+      </c>
+      <c r="H77">
         <f t="shared" si="11"/>
-        <v>2.4989826199563572</v>
-      </c>
-      <c r="D77" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99806954586377195</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="7"/>
-        <v>2.4989826199563572</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="8"/>
-        <v>0.99955807290575227</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="9"/>
-        <v>0.99959304798255499</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2.5999999999999699</v>
       </c>
       <c r="B78">
+        <f t="shared" si="12"/>
+        <v>2.0358507519940989</v>
+      </c>
+      <c r="C78" s="4">
+        <f t="shared" si="13"/>
+        <v>2.5993863105169934</v>
+      </c>
+      <c r="D78" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99884077082609524</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="8"/>
+        <v>2.5993863105169934</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="9"/>
+        <v>0.99974590750708248</v>
+      </c>
+      <c r="G78">
         <f t="shared" si="10"/>
-        <v>2.0358507519940989</v>
-      </c>
-      <c r="C78" s="4">
+        <v>0.99976396558347058</v>
+      </c>
+      <c r="H78">
         <f t="shared" si="11"/>
-        <v>2.5993863105169934</v>
-      </c>
-      <c r="D78" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99884077082609524</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="7"/>
-        <v>2.5993863105169934</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="8"/>
-        <v>0.99974590750708248</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="9"/>
-        <v>0.99976396558347058</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2.69999999999997</v>
       </c>
       <c r="B79">
+        <f t="shared" si="12"/>
+        <v>2.1358326804343015</v>
+      </c>
+      <c r="C79" s="4">
+        <f t="shared" si="13"/>
+        <v>2.6996373016021304</v>
+      </c>
+      <c r="D79" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99931767194724352</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="8"/>
+        <v>2.6996373016021304</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="9"/>
+        <v>0.99985624365760051</v>
+      </c>
+      <c r="G79">
         <f t="shared" si="10"/>
-        <v>2.1358326804343015</v>
-      </c>
-      <c r="C79" s="4">
+        <v>0.99986566726005943</v>
+      </c>
+      <c r="H79">
         <f t="shared" si="11"/>
-        <v>2.6996373016021304</v>
-      </c>
-      <c r="D79" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99931767194724352</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="7"/>
-        <v>2.6996373016021304</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="8"/>
-        <v>0.99985624365760051</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="9"/>
-        <v>0.99986566726005943</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2.7999999999999701</v>
       </c>
       <c r="B80">
+        <f t="shared" si="12"/>
+        <v>2.2358224834792533</v>
+      </c>
+      <c r="C80" s="4">
+        <f t="shared" si="13"/>
+        <v>2.7997899630549066</v>
+      </c>
+      <c r="D80" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99960633095934481</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="8"/>
+        <v>2.7997899630549066</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="9"/>
+        <v>0.99991996252337456</v>
+      </c>
+      <c r="G80">
         <f t="shared" si="10"/>
-        <v>2.2358224834792533</v>
-      </c>
-      <c r="C80" s="4">
+        <v>0.99992498680533448</v>
+      </c>
+      <c r="H80">
         <f t="shared" si="11"/>
-        <v>2.7997899630549066</v>
-      </c>
-      <c r="D80" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99960633095934481</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="7"/>
-        <v>2.7997899630549066</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="8"/>
-        <v>0.99991996252337456</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="9"/>
-        <v>0.99992498680533448</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2.8999999999999702</v>
       </c>
       <c r="B81">
+        <f t="shared" si="12"/>
+        <v>2.3358168380519855</v>
+      </c>
+      <c r="C81" s="4">
+        <f t="shared" si="13"/>
+        <v>2.8998808161534817</v>
+      </c>
+      <c r="D81" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.9997773701430811</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="8"/>
+        <v>2.8998808161534817</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="9"/>
+        <v>0.99995614848207115</v>
+      </c>
+      <c r="G81">
         <f t="shared" si="10"/>
-        <v>2.3358168380519855</v>
-      </c>
-      <c r="C81" s="4">
+        <v>0.99995890212190053</v>
+      </c>
+      <c r="H81">
         <f t="shared" si="11"/>
-        <v>2.8998808161534817</v>
-      </c>
-      <c r="D81" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.9997773701430811</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="7"/>
-        <v>2.8998808161534817</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="8"/>
-        <v>0.99995614848207115</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="9"/>
-        <v>0.99995890212190053</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2.9999999999999698</v>
       </c>
       <c r="B82">
+        <f t="shared" si="12"/>
+        <v>2.435813771487191</v>
+      </c>
+      <c r="C82" s="4">
+        <f t="shared" si="13"/>
+        <v>2.999933728508974</v>
+      </c>
+      <c r="D82" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99987659019591335</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="8"/>
+        <v>2.999933728508974</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="9"/>
+        <v>0.99997635959314224</v>
+      </c>
+      <c r="G82">
         <f t="shared" si="10"/>
-        <v>2.435813771487191</v>
-      </c>
-      <c r="C82" s="4">
+        <v>0.99997790950300136</v>
+      </c>
+      <c r="H82">
         <f t="shared" si="11"/>
-        <v>2.999933728508974</v>
-      </c>
-      <c r="D82" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99987659019591335</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="7"/>
-        <v>2.999933728508974</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="8"/>
-        <v>0.99997635959314224</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="9"/>
-        <v>0.99997790950300136</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3.0999999999999699</v>
       </c>
       <c r="B83">
+        <f t="shared" si="12"/>
+        <v>2.5358121372477731</v>
+      </c>
+      <c r="C83" s="4">
+        <f t="shared" si="13"/>
+        <v>3.0999638891621313</v>
+      </c>
+      <c r="D83" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.9999329451756972</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="8"/>
+        <v>3.0999638891621313</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="9"/>
+        <v>0.99998746209265654</v>
+      </c>
+      <c r="G83">
         <f t="shared" si="10"/>
-        <v>2.5358121372477731</v>
-      </c>
-      <c r="C83" s="4">
+        <v>0.99998835134263275</v>
+      </c>
+      <c r="H83">
         <f t="shared" si="11"/>
-        <v>3.0999638891621313</v>
-      </c>
-      <c r="D83" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.9999329451756972</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="7"/>
-        <v>3.0999638891621313</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="8"/>
-        <v>0.99998746209265654</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="9"/>
-        <v>0.99998835134263275</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3.19999999999997</v>
       </c>
       <c r="B84">
+        <f t="shared" si="12"/>
+        <v>2.635811282834295</v>
+      </c>
+      <c r="C84" s="4">
+        <f t="shared" si="13"/>
+        <v>3.1999807175642845</v>
+      </c>
+      <c r="D84" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99996428715035834</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="8"/>
+        <v>3.1999807175642845</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="9"/>
+        <v>0.99999345982406751</v>
+      </c>
+      <c r="G84">
         <f t="shared" si="10"/>
-        <v>2.635811282834295</v>
-      </c>
-      <c r="C84" s="4">
+        <v>0.99999397423884828</v>
+      </c>
+      <c r="H84">
         <f t="shared" si="11"/>
-        <v>3.1999807175642845</v>
-      </c>
-      <c r="D84" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99996428715035834</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="7"/>
-        <v>3.1999807175642845</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="8"/>
-        <v>0.99999345982406751</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="9"/>
-        <v>0.99999397423884828</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3.2999999999999701</v>
       </c>
       <c r="B85">
+        <f t="shared" si="12"/>
+        <v>2.735810844615107</v>
+      </c>
+      <c r="C85" s="4">
+        <f t="shared" si="13"/>
+        <v>3.2999899095576417</v>
+      </c>
+      <c r="D85" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99998135625766849</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="8"/>
+        <v>3.2999899095576417</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="9"/>
+        <v>0.99999664552915657</v>
+      </c>
+      <c r="G85">
         <f t="shared" si="10"/>
-        <v>2.735810844615107</v>
-      </c>
-      <c r="C85" s="4">
+        <v>0.99999694229020353</v>
+      </c>
+      <c r="H85">
         <f t="shared" si="11"/>
-        <v>3.2999899095576417</v>
-      </c>
-      <c r="D85" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99998135625766849</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="7"/>
-        <v>3.2999899095576417</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="8"/>
-        <v>0.99999664552915657</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="9"/>
-        <v>0.99999694229020353</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3.3999999999999702</v>
       </c>
       <c r="B86">
+        <f t="shared" si="12"/>
+        <v>2.8358106241352985</v>
+      </c>
+      <c r="C86" s="4">
+        <f t="shared" si="13"/>
+        <v>3.3999948252225365</v>
+      </c>
+      <c r="D86" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99999045983712687</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="8"/>
+        <v>3.3999948252225365</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="9"/>
+        <v>0.99999830880456897</v>
+      </c>
+      <c r="G86">
         <f t="shared" si="10"/>
-        <v>2.8358106241352985</v>
-      </c>
-      <c r="C86" s="4">
+        <v>0.9999984780066371</v>
+      </c>
+      <c r="H86">
         <f t="shared" si="11"/>
-        <v>3.3999948252225365</v>
-      </c>
-      <c r="D86" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99999045983712687</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="7"/>
-        <v>3.3999948252225365</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="8"/>
-        <v>0.99999830880456897</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="9"/>
-        <v>0.9999984780066371</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3.4999999999999698</v>
       </c>
       <c r="B87">
+        <f t="shared" si="12"/>
+        <v>2.9358105153212986</v>
+      </c>
+      <c r="C87" s="4">
+        <f t="shared" si="13"/>
+        <v>3.4999973991556663</v>
+      </c>
+      <c r="D87" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.9999952148826079</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="8"/>
+        <v>3.4999973991556663</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="9"/>
+        <v>0.99999916216294649</v>
+      </c>
+      <c r="G87">
         <f t="shared" si="10"/>
-        <v>2.9358105153212986</v>
-      </c>
-      <c r="C87" s="4">
+        <v>0.99999925690162761</v>
+      </c>
+      <c r="H87">
         <f t="shared" si="11"/>
-        <v>3.4999973991556663</v>
-      </c>
-      <c r="D87" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.9999952148826079</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="7"/>
-        <v>3.4999973991556663</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="8"/>
-        <v>0.99999916216294649</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="9"/>
-        <v>0.99999925690162761</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3.5999999999999699</v>
       </c>
       <c r="B88">
+        <f t="shared" si="12"/>
+        <v>3.0358104626438611</v>
+      </c>
+      <c r="C88" s="4">
+        <f t="shared" si="13"/>
+        <v>3.599998718893195</v>
+      </c>
+      <c r="D88" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99999764742480002</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="8"/>
+        <v>3.599998718893195</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="9"/>
+        <v>0.99999959225964519</v>
+      </c>
+      <c r="G88">
         <f t="shared" si="10"/>
-        <v>3.0358104626438611</v>
-      </c>
-      <c r="C88" s="4">
+        <v>0.99999964413700704</v>
+      </c>
+      <c r="H88">
         <f t="shared" si="11"/>
-        <v>3.599998718893195</v>
-      </c>
-      <c r="D88" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99999764742480002</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="7"/>
-        <v>3.599998718893195</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="8"/>
-        <v>0.99999959225964519</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="9"/>
-        <v>0.99999964413700704</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3.69999999999997</v>
       </c>
       <c r="B89">
+        <f t="shared" si="12"/>
+        <v>3.1358104376303415</v>
+      </c>
+      <c r="C89" s="4">
+        <f t="shared" si="13"/>
+        <v>3.6999993815410557</v>
+      </c>
+      <c r="D89" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99999886627286128</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="8"/>
+        <v>3.6999993815410557</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="9"/>
+        <v>0.99999980513465248</v>
+      </c>
+      <c r="G89">
         <f t="shared" si="10"/>
-        <v>3.1358104376303415</v>
-      </c>
-      <c r="C89" s="4">
+        <v>0.99999983284894212</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="11"/>
-        <v>3.6999993815410557</v>
-      </c>
-      <c r="D89" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99999886627286128</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="7"/>
-        <v>3.6999993815410557</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="8"/>
-        <v>0.99999980513465248</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="9"/>
-        <v>0.99999983284894212</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3.7999999999999701</v>
       </c>
       <c r="B90">
+        <f t="shared" si="12"/>
+        <v>3.2358104259804339</v>
+      </c>
+      <c r="C90" s="4">
+        <f t="shared" si="13"/>
+        <v>3.7999997073850458</v>
+      </c>
+      <c r="D90" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.9999994644652197</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="8"/>
+        <v>3.7999997073850458</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="9"/>
+        <v>0.99999990856973253</v>
+      </c>
+      <c r="G90">
         <f t="shared" si="10"/>
-        <v>3.2358104259804339</v>
-      </c>
-      <c r="C90" s="4">
+        <v>0.99999992299607254</v>
+      </c>
+      <c r="H90">
         <f t="shared" si="11"/>
-        <v>3.7999997073850458</v>
-      </c>
-      <c r="D90" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.9999994644652197</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="7"/>
-        <v>3.7999997073850458</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="8"/>
-        <v>0.99999990856973253</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="9"/>
-        <v>0.99999992299607254</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3.8999999999999702</v>
       </c>
       <c r="B91">
+        <f t="shared" si="12"/>
+        <v>3.3358104206586687</v>
+      </c>
+      <c r="C91" s="4">
+        <f t="shared" si="13"/>
+        <v>3.8999998643102005</v>
+      </c>
+      <c r="D91" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99999975204039815</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="8"/>
+        <v>3.8999998643102005</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="9"/>
+        <v>0.99999995789450646</v>
+      </c>
+      <c r="G91">
         <f t="shared" si="10"/>
-        <v>3.3358104206586687</v>
-      </c>
-      <c r="C91" s="4">
+        <v>0.99999996520775136</v>
+      </c>
+      <c r="H91">
         <f t="shared" si="11"/>
-        <v>3.8999998643102005</v>
-      </c>
-      <c r="D91" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99999975204039815</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="7"/>
-        <v>3.8999998643102005</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="8"/>
-        <v>0.99999995789450646</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="9"/>
-        <v>0.99999996520775136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3.9999999999999698</v>
       </c>
       <c r="B92">
+        <f t="shared" si="12"/>
+        <v>3.4358104182743552</v>
+      </c>
+      <c r="C92" s="4">
+        <f t="shared" si="13"/>
+        <v>3.9999999383309381</v>
+      </c>
+      <c r="D92" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99999988746482527</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="8"/>
+        <v>3.9999999383309381</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="9"/>
+        <v>0.99999998097248044</v>
+      </c>
+      <c r="G92">
         <f t="shared" si="10"/>
-        <v>3.4358104182743552</v>
-      </c>
-      <c r="C92" s="4">
+        <v>0.99999998458274209</v>
+      </c>
+      <c r="H92">
         <f t="shared" si="11"/>
-        <v>3.9999999383309381</v>
-      </c>
-      <c r="D92" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99999988746482527</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="7"/>
-        <v>3.9999999383309381</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="8"/>
-        <v>0.99999998097248044</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="9"/>
-        <v>0.99999998458274209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4.0999999999999703</v>
       </c>
       <c r="B93">
+        <f t="shared" si="12"/>
+        <v>3.5358104172266613</v>
+      </c>
+      <c r="C93" s="4">
+        <f t="shared" si="13"/>
+        <v>4.099999972529857</v>
+      </c>
+      <c r="D93" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99999994993781982</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="8"/>
+        <v>4.099999972529857</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="9"/>
+        <v>0.99999999156404973</v>
+      </c>
+      <c r="G93">
         <f t="shared" si="10"/>
-        <v>3.5358104172266613</v>
-      </c>
-      <c r="C93" s="4">
+        <v>0.99999999329997236</v>
+      </c>
+      <c r="H93">
         <f t="shared" si="11"/>
-        <v>4.099999972529857</v>
-      </c>
-      <c r="D93" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99999994993781982</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="7"/>
-        <v>4.099999972529857</v>
-      </c>
-      <c r="F93">
-        <f t="shared" si="8"/>
-        <v>0.99999999156404973</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="9"/>
-        <v>0.99999999329997236</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4.19999999999997</v>
       </c>
       <c r="B94">
+        <f t="shared" si="12"/>
+        <v>3.6358104167751581</v>
+      </c>
+      <c r="C94" s="4">
+        <f t="shared" si="13"/>
+        <v>4.1999999880068941</v>
+      </c>
+      <c r="D94" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99999997817042208</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="8"/>
+        <v>4.1999999880068941</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="9"/>
+        <v>0.99999999633123249</v>
+      </c>
+      <c r="G94">
         <f t="shared" si="10"/>
-        <v>3.6358104167751581</v>
-      </c>
-      <c r="C94" s="4">
+        <v>0.99999999714450583</v>
+      </c>
+      <c r="H94">
         <f t="shared" si="11"/>
-        <v>4.1999999880068941</v>
-      </c>
-      <c r="D94" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99999997817042208</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="7"/>
-        <v>4.1999999880068941</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="8"/>
-        <v>0.99999999633123249</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="9"/>
-        <v>0.99999999714450583</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4.2999999999999696</v>
       </c>
       <c r="B95">
+        <f t="shared" si="12"/>
+        <v>3.7358104165843358</v>
+      </c>
+      <c r="C95" s="4">
+        <f t="shared" si="13"/>
+        <v>4.299999994868041</v>
+      </c>
+      <c r="D95" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99999999066971246</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="8"/>
+        <v>4.299999994868041</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="9"/>
+        <v>0.99999999843513088</v>
+      </c>
+      <c r="G95">
         <f t="shared" si="10"/>
-        <v>3.7358104165843358</v>
-      </c>
-      <c r="C95" s="4">
+        <v>0.99999999880652823</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="11"/>
-        <v>4.299999994868041</v>
-      </c>
-      <c r="D95" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99999999066971246</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="7"/>
-        <v>4.299999994868041</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="8"/>
-        <v>0.99999999843513088</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="9"/>
-        <v>0.99999999880652823</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4.3999999999999702</v>
       </c>
       <c r="B96">
+        <f t="shared" si="12"/>
+        <v>3.8358104165052431</v>
+      </c>
+      <c r="C96" s="4">
+        <f t="shared" si="13"/>
+        <v>4.3999999978476172</v>
+      </c>
+      <c r="D96" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.9999999960910616</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="8"/>
+        <v>4.3999999978476172</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="9"/>
+        <v>0.99999999934543149</v>
+      </c>
+      <c r="G96">
         <f t="shared" si="10"/>
-        <v>3.8358104165052431</v>
-      </c>
-      <c r="C96" s="4">
+        <v>0.99999999951082896</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="11"/>
-        <v>4.3999999978476172</v>
-      </c>
-      <c r="D96" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.9999999960910616</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="7"/>
-        <v>4.3999999978476172</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="8"/>
-        <v>0.99999999934543149</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="9"/>
-        <v>0.99999999951082896</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4.4999999999999698</v>
       </c>
       <c r="B97">
+        <f t="shared" si="12"/>
+        <v>3.9358104164730943</v>
+      </c>
+      <c r="C97" s="4">
+        <f t="shared" si="13"/>
+        <v>4.4999999991151975</v>
+      </c>
+      <c r="D97" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99999999839477194</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="8"/>
+        <v>4.4999999991151975</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="9"/>
+        <v>0.9999999997315222</v>
+      </c>
+      <c r="G97">
         <f t="shared" si="10"/>
-        <v>3.9358104164730943</v>
-      </c>
-      <c r="C97" s="4">
+        <v>0.99999999980338394</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="11"/>
-        <v>4.4999999991151975</v>
-      </c>
-      <c r="D97" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99999999839477194</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="7"/>
-        <v>4.4999999991151975</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="8"/>
-        <v>0.9999999997315222</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="9"/>
-        <v>0.99999999980338394</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4.5999999999999703</v>
       </c>
       <c r="B98">
+        <f t="shared" si="12"/>
+        <v>4.0358104164602793</v>
+      </c>
+      <c r="C98" s="4">
+        <f t="shared" si="13"/>
+        <v>4.5999999996434884</v>
+      </c>
+      <c r="D98" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99999999935385686</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="8"/>
+        <v>4.5999999996434884</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="9"/>
+        <v>0.99999999989203014</v>
+      </c>
+      <c r="G98">
         <f t="shared" si="10"/>
-        <v>4.0358104164602793</v>
-      </c>
-      <c r="C98" s="4">
+        <v>0.99999999992250399</v>
+      </c>
+      <c r="H98">
         <f t="shared" si="11"/>
-        <v>4.5999999996434884</v>
-      </c>
-      <c r="D98" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99999999935385686</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="7"/>
-        <v>4.5999999996434884</v>
-      </c>
-      <c r="F98">
-        <f t="shared" si="8"/>
-        <v>0.99999999989203014</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="9"/>
-        <v>0.99999999992250399</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4.69999999999997</v>
       </c>
       <c r="B99">
+        <f t="shared" si="12"/>
+        <v>4.1358104164552696</v>
+      </c>
+      <c r="C99" s="4">
+        <f t="shared" si="13"/>
+        <v>4.6999999998591928</v>
+      </c>
+      <c r="D99" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99999999974506182</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="8"/>
+        <v>4.6999999998591928</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="9"/>
+        <v>0.9999999999574295</v>
+      </c>
+      <c r="G99">
         <f t="shared" si="10"/>
-        <v>4.1358104164552696</v>
-      </c>
-      <c r="C99" s="4">
+        <v>0.9999999999700474</v>
+      </c>
+      <c r="H99">
         <f t="shared" si="11"/>
-        <v>4.6999999998591928</v>
-      </c>
-      <c r="D99" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99999999974506182</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="7"/>
-        <v>4.6999999998591928</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="8"/>
-        <v>0.9999999999574295</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="9"/>
-        <v>0.9999999999700474</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4.7999999999999696</v>
       </c>
       <c r="B100">
+        <f t="shared" si="12"/>
+        <v>4.235810416453349</v>
+      </c>
+      <c r="C100" s="4">
+        <f t="shared" si="13"/>
+        <v>4.799999999945479</v>
+      </c>
+      <c r="D100" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99999999990140498</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="8"/>
+        <v>4.799999999945479</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="9"/>
+        <v>0.99999999998354472</v>
+      </c>
+      <c r="G100">
         <f t="shared" si="10"/>
-        <v>4.235810416453349</v>
-      </c>
-      <c r="C100" s="4">
+        <v>0.99999999998864786</v>
+      </c>
+      <c r="H100">
         <f t="shared" si="11"/>
-        <v>4.799999999945479</v>
-      </c>
-      <c r="D100" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99999999990140498</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="7"/>
-        <v>4.799999999945479</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="8"/>
-        <v>0.99999999998354472</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="9"/>
-        <v>0.99999999998864786</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4.8999999999999604</v>
       </c>
       <c r="B101">
+        <f t="shared" si="12"/>
+        <v>4.3358104164526177</v>
+      </c>
+      <c r="C101" s="4">
+        <f t="shared" si="13"/>
+        <v>4.8999999999792871</v>
+      </c>
+      <c r="D101" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99999999996262434</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="8"/>
+        <v>4.8999999999792871</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="9"/>
+        <v>0.99999999999376443</v>
+      </c>
+      <c r="G101">
         <f t="shared" si="10"/>
-        <v>4.3358104164526177</v>
-      </c>
-      <c r="C101" s="4">
+        <v>0.99999999999578104</v>
+      </c>
+      <c r="H101">
         <f t="shared" si="11"/>
-        <v>4.8999999999792871</v>
-      </c>
-      <c r="D101" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99999999996262434</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="7"/>
-        <v>4.8999999999792871</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="8"/>
-        <v>0.99999999999376443</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="9"/>
-        <v>0.99999999999578104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4.99999999999996</v>
       </c>
       <c r="B102">
+        <f t="shared" si="12"/>
+        <v>4.4358104164523517</v>
+      </c>
+      <c r="C102" s="4">
+        <f t="shared" si="13"/>
+        <v>4.9999999999922728</v>
+      </c>
+      <c r="D102" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.99999999998611211</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="8"/>
+        <v>4.9999999999922728</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="9"/>
+        <v>0.99999999999768363</v>
+      </c>
+      <c r="G102">
         <f t="shared" si="10"/>
-        <v>4.4358104164523517</v>
-      </c>
-      <c r="C102" s="4">
+        <v>0.99999999999846256</v>
+      </c>
+      <c r="H102">
         <f t="shared" si="11"/>
-        <v>4.9999999999922728</v>
-      </c>
-      <c r="D102" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.99999999998611211</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="7"/>
-        <v>4.9999999999922728</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="8"/>
-        <v>0.99999999999768363</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="9"/>
-        <v>0.99999999999846256</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
